--- a/data/trans_dic/POLIPATOLOGIA_Lim_5-Clase-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_Lim_5-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +527,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,83 +543,65 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -639,9 +619,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,60 +633,45 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>1,83%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>3,67%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>5,98%</t>
         </is>
@@ -724,62 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>0,0; 1,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,2</t>
+          <t>1,5; 5,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,46; 5,05</t>
+          <t>2,37; 5,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,4; 5,4</t>
+          <t>2,27; 6,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,64</t>
+          <t>2,48; 7,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,94; 6,75</t>
+          <t>6,72; 11,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,52; 7,48</t>
+          <t>1,01; 3,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,64; 10,93</t>
+          <t>2,45; 5,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>0,97; 3,18</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>2,54; 5,4</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>4,82; 7,24</t>
+          <t>4,75; 7,42</t>
         </is>
       </c>
     </row>
@@ -796,60 +743,45 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>3,04%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>2,27%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>7,6%</t>
         </is>
@@ -864,62 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>0,94; 3,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,78</t>
+          <t>0,51; 3,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 3,26</t>
+          <t>2,95; 6,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,94; 6,44</t>
+          <t>2,28; 7,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>1,56; 5,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,56; 7,24</t>
+          <t>8,8; 14,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,46; 5,48</t>
+          <t>1,96; 4,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,07; 14,19</t>
+          <t>1,27; 3,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>1,87; 4,61</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>1,29; 3,72</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>6,18; 9,33</t>
+          <t>6,19; 9,32</t>
         </is>
       </c>
     </row>
@@ -936,60 +853,45 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,58%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>18,21%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>14,58%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>18,21%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>5,13%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>5,45%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>8,32%</t>
         </is>
@@ -1004,62 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>2,99; 6,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,97; 6,67</t>
+          <t>1,32; 4,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,31</t>
+          <t>2,12; 10,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,24; 10,04</t>
+          <t>3,7; 9,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,16</t>
+          <t>9,46; 21,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,69; 10,05</t>
+          <t>14,27; 23,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,37; 21,21</t>
+          <t>3,8; 6,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,06; 23,41</t>
+          <t>3,84; 7,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>3,81; 6,92</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>3,74; 7,56</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>3,34; 12,22</t>
+          <t>3,7; 12,49</t>
         </is>
       </c>
     </row>
@@ -1076,60 +963,45 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>9,7%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,7%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>5,68%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>4,57%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>9,18%</t>
         </is>
@@ -1144,62 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>4,29; 7,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,35; 7,14</t>
+          <t>2,5; 4,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,49; 4,62</t>
+          <t>8,27; 11,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,19; 11,5</t>
+          <t>4,27; 7,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>4,66; 8,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,33; 8,16</t>
+          <t>4,25; 11,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,62; 7,87</t>
+          <t>4,68; 6,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,33; 11,33</t>
+          <t>3,66; 5,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>4,63; 6,92</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>3,61; 5,54</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>6,62; 10,75</t>
+          <t>6,54; 10,67</t>
         </is>
       </c>
     </row>
@@ -1216,60 +1073,45 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>12,62%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,09%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>21,21%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>12,09%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>21,21%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>8,97%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>9,09%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
         <is>
           <t>16,88%</t>
         </is>
@@ -1284,62 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>2,27; 5,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,08; 5,53</t>
+          <t>3,93; 7,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,07; 7,48</t>
+          <t>7,03; 11,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,96; 11,67</t>
+          <t>10,27; 15,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>9,81; 14,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,44; 15,17</t>
+          <t>15,26; 24,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,61; 14,49</t>
+          <t>7,43; 10,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>15,33; 24,56</t>
+          <t>7,65; 10,94</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>7,55; 10,79</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>7,6; 10,77</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>13,76; 19,11</t>
+          <t>13,92; 19,17</t>
         </is>
       </c>
     </row>
@@ -1356,60 +1183,45 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>13,03%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,53%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>17,24%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>11,53%</t>
+          <t>10,64%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>17,24%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>10,64%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>9,19%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
         <is>
           <t>13,47%</t>
         </is>
@@ -1424,62 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>0,0; 2,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,27</t>
+          <t>0,0; 1,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,98</t>
+          <t>0,68; 3,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,45</t>
+          <t>11,22; 15,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>9,51; 13,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,12; 15,44</t>
+          <t>15,11; 19,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,66; 13,69</t>
+          <t>8,92; 12,49</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>15,2; 19,43</t>
+          <t>7,66; 11,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>8,96; 12,33</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>7,74; 11,11</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>11,7; 15,27</t>
+          <t>11,85; 15,3</t>
         </is>
       </c>
     </row>
@@ -1496,60 +1293,45 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>14,15%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>14,15%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>6,49%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>6,11%</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
         <is>
           <t>10,52%</t>
         </is>
@@ -1564,62 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,91; 4,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,96; 4,27</t>
+          <t>2,58; 3,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,61; 3,85</t>
+          <t>5,29; 7,6</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,07; 7,59</t>
+          <t>8,35; 10,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,96; 10,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,37; 10,38</t>
+          <t>11,35; 15,48</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,93; 10,08</t>
+          <t>5,92; 7,22</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,68; 15,52</t>
+          <t>5,51; 6,7</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>5,87; 7,11</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>5,53; 6,7</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>9,0; 11,45</t>
+          <t>9,18; 11,44</t>
         </is>
       </c>
     </row>
@@ -1632,18 +1399,1305 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con cinco o más enfermedades crónicas de las que al menos una es limitante</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>992</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>12479</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>18505</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>12759</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>15983</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>38461</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>13751</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>28462</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>56966</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5309</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6439; 21854</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>11952; 27061</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>7125; 21913</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>8602; 24351</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>30085; 50872</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>7578; 23274</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>19034; 41673</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>45285; 70678</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>8253</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5397</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>20256</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>14757</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>11614</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>43223</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>23011</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>17011</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>63479</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3950; 15281</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1918; 12288</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>13329; 28955</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>7692; 24794</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5806; 21245</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>33669; 53811</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>14800; 35352</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>9488; 27835</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>51637; 77841</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>29123</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>13294</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>39089</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>16503</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>24224</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>30390</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>45626</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>37519</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>69479</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>18811; 41886</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6896; 21854</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>14159; 66864</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>9629; 25096</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>15712; 35691</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>23813; 38753</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>33835; 61254</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>26425; 50312</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>30937; 104324</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>63900</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>39496</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>100372</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>45409</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>50801</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>84395</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>109308</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>90297</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>184767</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>49762; 81525</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>28733; 53037</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>85623; 120803</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>32707; 60399</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>38516; 66526</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>41531; 113751</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>90045; 133609</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>72360; 112053</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>131721; 214683</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>18066</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>34288</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>43654</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>96104</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>89279</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>178488</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>114170</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>123567</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>222141</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>11615; 28494</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>24423; 47981</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>33376; 56457</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>78185; 116148</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>72457; 109839</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>128399; 207477</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>94561; 135966</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>103941; 148723</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>183293; 252399</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1135</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3710</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>144502</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>124743</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>131226</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>146475</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>125878</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>134936</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6302</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5700</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1625; 8174</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>124442; 170260</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>102925; 148630</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>115013; 148077</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>122725; 171930</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>104882; 151497</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>118740; 153296</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>954</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1270</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>122307</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>106089</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>225586</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>330034</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>316645</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>506182</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>452341</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>422734</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>731769</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>99698; 146012</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>87491; 127310</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>178452; 256450</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>296300; 368916</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>281043; 353168</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>405995; 553937</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>412578; 503049</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>381264; 463498</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>638292; 795602</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/POLIPATOLOGIA_Lim_5-Clase-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_Lim_5-Clase-trans_dic.xlsx
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
